--- a/proj1/medicoes/ex2/all_data.xlsx
+++ b/proj1/medicoes/ex2/all_data.xlsx
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.722424</v>
+        <v>0.091543</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.730828</v>
+        <v>1.020762</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1.712139</v>
+        <v>1.024449</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1.727017</v>
+        <v>1.03816</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>1.76938</v>
+        <v>0.327299</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>1.897039</v>
+        <v>0.2213</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>1.957227</v>
+        <v>0.206433</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>128</v>
       </c>
       <c r="C9" t="n">
-        <v>1.826135</v>
+        <v>0.203473</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>256</v>
       </c>
       <c r="C10" t="n">
-        <v>1.775251</v>
+        <v>0.20455</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>512</v>
       </c>
       <c r="C11" t="n">
-        <v>1.785847</v>
+        <v>0.205245</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>1024</v>
       </c>
       <c r="C12" t="n">
-        <v>1.748047</v>
+        <v>0.242041</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>2048</v>
       </c>
       <c r="C13" t="n">
-        <v>1.226299</v>
+        <v>0.332395</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.62012</v>
+        <v>0.017053</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1.628049</v>
+        <v>0.242808</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1.634779</v>
+        <v>0.205936</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1.647426</v>
+        <v>0.207012</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>1.650105</v>
+        <v>0.207064</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>1.673033</v>
+        <v>0.239011</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="n">
-        <v>1.75001</v>
+        <v>0.220188</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>1.884961</v>
+        <v>0.207452</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>256</v>
       </c>
       <c r="C22" t="n">
-        <v>1.778014</v>
+        <v>0.221384</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>512</v>
       </c>
       <c r="C23" t="n">
-        <v>1.728284</v>
+        <v>0.220217</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1024</v>
       </c>
       <c r="C24" t="n">
-        <v>1.740665</v>
+        <v>0.212341</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>2048</v>
       </c>
       <c r="C25" t="n">
-        <v>1.192313</v>
+        <v>0.280582</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>4096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.293157</v>
+        <v>0.426753</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1.571472</v>
+        <v>0.017732</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1.59883</v>
+        <v>0.235247</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>1.609365</v>
+        <v>0.214569</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>1.635822</v>
+        <v>0.240759</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>1.655486</v>
+        <v>0.242273</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>1.644787</v>
+        <v>0.253121</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>64</v>
       </c>
       <c r="C33" t="n">
-        <v>1.663633</v>
+        <v>0.245801</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>128</v>
       </c>
       <c r="C34" t="n">
-        <v>1.814167</v>
+        <v>0.237479</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>256</v>
       </c>
       <c r="C35" t="n">
-        <v>1.879296</v>
+        <v>0.219615</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>512</v>
       </c>
       <c r="C36" t="n">
-        <v>1.788171</v>
+        <v>0.225221</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1024</v>
       </c>
       <c r="C37" t="n">
-        <v>1.728091</v>
+        <v>0.282206</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>2048</v>
       </c>
       <c r="C38" t="n">
-        <v>1.767034</v>
+        <v>0.291384</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>4096</v>
       </c>
       <c r="C39" t="n">
-        <v>1.293209</v>
+        <v>0.313796</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>8192</v>
       </c>
       <c r="C40" t="n">
-        <v>1.293602</v>
+        <v>0.354431</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1.564842</v>
+        <v>0.016941</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1.584534</v>
+        <v>0.243226</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>1.599787</v>
+        <v>0.233935</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>1.609703</v>
+        <v>0.234519</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>1.6357</v>
+        <v>0.216529</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>1.601143</v>
+        <v>0.223001</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>64</v>
       </c>
       <c r="C47" t="n">
-        <v>1.612849</v>
+        <v>0.210116</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>128</v>
       </c>
       <c r="C48" t="n">
-        <v>1.665914</v>
+        <v>0.208596</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>256</v>
       </c>
       <c r="C49" t="n">
-        <v>1.708813</v>
+        <v>0.226162</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>512</v>
       </c>
       <c r="C50" t="n">
-        <v>1.83654</v>
+        <v>0.300575</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1024</v>
       </c>
       <c r="C51" t="n">
-        <v>1.797422</v>
+        <v>0.288572</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>2048</v>
       </c>
       <c r="C52" t="n">
-        <v>1.731996</v>
+        <v>0.348467</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>4096</v>
       </c>
       <c r="C53" t="n">
-        <v>1.750499</v>
+        <v>0.491321</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>8192</v>
       </c>
       <c r="C54" t="n">
-        <v>1.291649</v>
+        <v>0.292986</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>16384</v>
       </c>
       <c r="C55" t="n">
-        <v>1.297305</v>
+        <v>0.315322</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1.57002</v>
+        <v>0.020317</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1.674411</v>
+        <v>0.207021</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>1.58797</v>
+        <v>0.256176</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>1.605126</v>
+        <v>0.205833</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>1.645121</v>
+        <v>0.218099</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>32</v>
       </c>
       <c r="C61" t="n">
-        <v>1.615897</v>
+        <v>0.240048</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>1.630594</v>
+        <v>0.498074</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>1.644324</v>
+        <v>0.664779</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>256</v>
       </c>
       <c r="C64" t="n">
-        <v>1.675736</v>
+        <v>0.701785</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>512</v>
       </c>
       <c r="C65" t="n">
-        <v>1.723452</v>
+        <v>1.007668</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1024</v>
       </c>
       <c r="C66" t="n">
-        <v>1.823683</v>
+        <v>1.290291</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>2048</v>
       </c>
       <c r="C67" t="n">
-        <v>2.498266</v>
+        <v>1.24217</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>4096</v>
       </c>
       <c r="C68" t="n">
-        <v>3.237226</v>
+        <v>1.566689</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>8192</v>
       </c>
       <c r="C69" t="n">
-        <v>1.751616</v>
+        <v>0.461158</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>16384</v>
       </c>
       <c r="C70" t="n">
-        <v>1.262936</v>
+        <v>0.298382</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>32768</v>
       </c>
       <c r="C71" t="n">
-        <v>1.265732</v>
+        <v>0.338383</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1.5758</v>
+        <v>0.016463</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1.575096</v>
+        <v>0.209565</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>1.58554</v>
+        <v>0.221283</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>1.600829</v>
+        <v>0.235194</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="n">
-        <v>1.657296</v>
+        <v>0.22884</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>32</v>
       </c>
       <c r="C77" t="n">
-        <v>1.605073</v>
+        <v>0.252542</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>1.625861</v>
+        <v>0.471644</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>128</v>
       </c>
       <c r="C79" t="n">
-        <v>1.632797</v>
+        <v>0.685894</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>256</v>
       </c>
       <c r="C80" t="n">
-        <v>1.672158</v>
+        <v>0.699643</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>512</v>
       </c>
       <c r="C81" t="n">
-        <v>1.678231</v>
+        <v>0.966778</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>1024</v>
       </c>
       <c r="C82" t="n">
-        <v>1.744441</v>
+        <v>1.233362</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>2048</v>
       </c>
       <c r="C83" t="n">
-        <v>5.410353</v>
+        <v>1.448923</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>4096</v>
       </c>
       <c r="C84" t="n">
-        <v>4.510585</v>
+        <v>1.909431</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>8192</v>
       </c>
       <c r="C85" t="n">
-        <v>2.395687</v>
+        <v>1.514473</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>16384</v>
       </c>
       <c r="C86" t="n">
-        <v>1.678504</v>
+        <v>0.449824</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>32768</v>
       </c>
       <c r="C87" t="n">
-        <v>1.279218</v>
+        <v>0.291276</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>65536</v>
       </c>
       <c r="C88" t="n">
-        <v>1.295205</v>
+        <v>0.337316</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1.56764</v>
+        <v>0.01579</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>1.635168</v>
+        <v>0.220241</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>1.583007</v>
+        <v>0.225897</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>1.61177</v>
+        <v>0.21076</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>1.62945</v>
+        <v>0.224608</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="C94" t="n">
-        <v>1.602611</v>
+        <v>0.288472</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>64</v>
       </c>
       <c r="C95" t="n">
-        <v>1.620847</v>
+        <v>0.543225</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>128</v>
       </c>
       <c r="C96" t="n">
-        <v>1.625469</v>
+        <v>0.868501</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>256</v>
       </c>
       <c r="C97" t="n">
-        <v>1.634166</v>
+        <v>0.941873</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>512</v>
       </c>
       <c r="C98" t="n">
-        <v>1.653799</v>
+        <v>1.226494</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1024</v>
       </c>
       <c r="C99" t="n">
-        <v>1.70345</v>
+        <v>1.349436</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>2048</v>
       </c>
       <c r="C100" t="n">
-        <v>5.430904</v>
+        <v>1.659869</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>4096</v>
       </c>
       <c r="C101" t="n">
-        <v>6.037146</v>
+        <v>2.145404</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>8192</v>
       </c>
       <c r="C102" t="n">
-        <v>4.711135</v>
+        <v>1.893798</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>16384</v>
       </c>
       <c r="C103" t="n">
-        <v>3.360454</v>
+        <v>1.730253</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>32768</v>
       </c>
       <c r="C104" t="n">
-        <v>1.721002</v>
+        <v>0.451793</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>65536</v>
       </c>
       <c r="C105" t="n">
-        <v>1.281021</v>
+        <v>0.29434</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>131072</v>
       </c>
       <c r="C106" t="n">
-        <v>1.293829</v>
+        <v>0.334871</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1.566696</v>
+        <v>0.015975</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>1.573661</v>
+        <v>0.218741</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>1.599676</v>
+        <v>0.209311</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>1.595257</v>
+        <v>0.21084</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="C111" t="n">
-        <v>1.625429</v>
+        <v>0.236654</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="C112" t="n">
-        <v>1.600443</v>
+        <v>0.371524</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>64</v>
       </c>
       <c r="C113" t="n">
-        <v>1.627461</v>
+        <v>0.713524</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>128</v>
       </c>
       <c r="C114" t="n">
-        <v>1.622331</v>
+        <v>1.256837</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>256</v>
       </c>
       <c r="C115" t="n">
-        <v>1.645317</v>
+        <v>1.427375</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>512</v>
       </c>
       <c r="C116" t="n">
-        <v>1.637281</v>
+        <v>1.764709</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1024</v>
       </c>
       <c r="C117" t="n">
-        <v>1.670392</v>
+        <v>1.944069</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>2048</v>
       </c>
       <c r="C118" t="n">
-        <v>5.399642</v>
+        <v>2.183763</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>4096</v>
       </c>
       <c r="C119" t="n">
-        <v>5.954124</v>
+        <v>2.072138</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>8192</v>
       </c>
       <c r="C120" t="n">
-        <v>5.959366</v>
+        <v>2.060144</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>16384</v>
       </c>
       <c r="C121" t="n">
-        <v>2.911433</v>
+        <v>1.882334</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>32768</v>
       </c>
       <c r="C122" t="n">
-        <v>3.496038</v>
+        <v>1.488547</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>65536</v>
       </c>
       <c r="C123" t="n">
-        <v>1.758763</v>
+        <v>0.464673</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>131072</v>
       </c>
       <c r="C124" t="n">
-        <v>1.244095</v>
+        <v>0.285936</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>262144</v>
       </c>
       <c r="C125" t="n">
-        <v>1.442217</v>
+        <v>0.327474</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1.584103</v>
+        <v>0.015864</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>1.586511</v>
+        <v>0.213988</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="C128" t="n">
-        <v>1.587567</v>
+        <v>0.206579</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>1.597732</v>
+        <v>0.209507</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="C130" t="n">
-        <v>1.628723</v>
+        <v>0.236472</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="C131" t="n">
-        <v>1.629417</v>
+        <v>0.371576</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>64</v>
       </c>
       <c r="C132" t="n">
-        <v>1.94674</v>
+        <v>0.705261</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>128</v>
       </c>
       <c r="C133" t="n">
-        <v>2.393662</v>
+        <v>1.253613</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>256</v>
       </c>
       <c r="C134" t="n">
-        <v>2.362264</v>
+        <v>1.437821</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>512</v>
       </c>
       <c r="C135" t="n">
-        <v>2.41585</v>
+        <v>1.782103</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1024</v>
       </c>
       <c r="C136" t="n">
-        <v>5.280903</v>
+        <v>2.006038</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>2048</v>
       </c>
       <c r="C137" t="n">
-        <v>5.864692</v>
+        <v>2.131632</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>4096</v>
       </c>
       <c r="C138" t="n">
-        <v>6.554382</v>
+        <v>2.039755</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>8192</v>
       </c>
       <c r="C139" t="n">
-        <v>6.154912</v>
+        <v>2.066702</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>16384</v>
       </c>
       <c r="C140" t="n">
-        <v>5.878245</v>
+        <v>2.084735</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>32768</v>
       </c>
       <c r="C141" t="n">
-        <v>4.396877</v>
+        <v>1.844773</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>65536</v>
       </c>
       <c r="C142" t="n">
-        <v>3.53197</v>
+        <v>1.515525</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>131072</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73784</v>
+        <v>0.463972</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>262144</v>
       </c>
       <c r="C144" t="n">
-        <v>1.200877</v>
+        <v>0.284781</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>524288</v>
       </c>
       <c r="C145" t="n">
-        <v>1.352694</v>
+        <v>0.328824</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1.579511</v>
+        <v>0.017006</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>1.609855</v>
+        <v>0.222694</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="n">
-        <v>1.593546</v>
+        <v>0.204827</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>1.623865</v>
+        <v>0.205932</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="C150" t="n">
-        <v>1.670601</v>
+        <v>0.231562</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>1.683641</v>
+        <v>0.367808</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>64</v>
       </c>
       <c r="C152" t="n">
-        <v>4.677074</v>
+        <v>0.7077369999999999</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>128</v>
       </c>
       <c r="C153" t="n">
-        <v>6.353133</v>
+        <v>1.238662</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>256</v>
       </c>
       <c r="C154" t="n">
-        <v>7.505425</v>
+        <v>1.438688</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>512</v>
       </c>
       <c r="C155" t="n">
-        <v>7.927816</v>
+        <v>1.806787</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>1024</v>
       </c>
       <c r="C156" t="n">
-        <v>7.74782</v>
+        <v>2.027585</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>2048</v>
       </c>
       <c r="C157" t="n">
-        <v>9.275809000000001</v>
+        <v>2.134248</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>4096</v>
       </c>
       <c r="C158" t="n">
-        <v>11.503121</v>
+        <v>2.061156</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>8192</v>
       </c>
       <c r="C159" t="n">
-        <v>7.503494</v>
+        <v>2.049766</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>16384</v>
       </c>
       <c r="C160" t="n">
-        <v>5.902234</v>
+        <v>2.089929</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>32768</v>
       </c>
       <c r="C161" t="n">
-        <v>5.975584</v>
+        <v>2.197183</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>65536</v>
       </c>
       <c r="C162" t="n">
-        <v>4.620265</v>
+        <v>2.043711</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>131072</v>
       </c>
       <c r="C163" t="n">
-        <v>3.580682</v>
+        <v>1.494444</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>262144</v>
       </c>
       <c r="C164" t="n">
-        <v>1.724009</v>
+        <v>0.463072</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>524288</v>
       </c>
       <c r="C165" t="n">
-        <v>1.2734</v>
+        <v>0.284439</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>1048576</v>
       </c>
       <c r="C166" t="n">
-        <v>1.298333</v>
+        <v>0.329541</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1.592093</v>
+        <v>0.034399</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>1.59695</v>
+        <v>0.209146</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>1.59979</v>
+        <v>0.204055</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="n">
-        <v>1.611742</v>
+        <v>0.211657</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>1.680219</v>
+        <v>0.243396</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="C172" t="n">
-        <v>1.691865</v>
+        <v>0.390546</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>64</v>
       </c>
       <c r="C173" t="n">
-        <v>3.459532</v>
+        <v>0.728139</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>128</v>
       </c>
       <c r="C174" t="n">
-        <v>6.481088</v>
+        <v>1.256324</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>256</v>
       </c>
       <c r="C175" t="n">
-        <v>7.958194</v>
+        <v>1.471015</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>512</v>
       </c>
       <c r="C176" t="n">
-        <v>8.111964</v>
+        <v>1.832239</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1024</v>
       </c>
       <c r="C177" t="n">
-        <v>7.809545</v>
+        <v>2.050656</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>2048</v>
       </c>
       <c r="C178" t="n">
-        <v>9.382999</v>
+        <v>2.13652</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>4096</v>
       </c>
       <c r="C179" t="n">
-        <v>11.909733</v>
+        <v>2.093771</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>8192</v>
       </c>
       <c r="C180" t="n">
-        <v>11.812001</v>
+        <v>2.063038</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>16384</v>
       </c>
       <c r="C181" t="n">
-        <v>6.921576</v>
+        <v>2.060614</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>32768</v>
       </c>
       <c r="C182" t="n">
-        <v>5.880022</v>
+        <v>2.070784</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>65536</v>
       </c>
       <c r="C183" t="n">
-        <v>5.969134</v>
+        <v>2.411798</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>131072</v>
       </c>
       <c r="C184" t="n">
-        <v>3.574764</v>
+        <v>2.114598</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>262144</v>
       </c>
       <c r="C185" t="n">
-        <v>3.539894</v>
+        <v>1.820301</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>524288</v>
       </c>
       <c r="C186" t="n">
-        <v>1.736284</v>
+        <v>0.463932</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1048576</v>
       </c>
       <c r="C187" t="n">
-        <v>1.253796</v>
+        <v>0.283714</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>2097152</v>
       </c>
       <c r="C188" t="n">
-        <v>1.331109</v>
+        <v>0.325298</v>
       </c>
     </row>
   </sheetData>
